--- a/Document/요구사항.xlsx
+++ b/Document/요구사항.xlsx
@@ -23,9 +23,234 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="55">
+  <si>
+    <t>1.1 컴퓨터 화면 이미지에서 수식을 인식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.2 책 이미지에서 수식을 인식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.3 손으로 쓴 수식 이미지에서 수식을 인식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.4 저장된 이미지에서 수식을 인식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 다양한 수식을 알맞게 분석 해야 함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.1.2 n차 방정식을 알맞게 분석 해야 함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.1.1 연립 방정식을 알맞게 분석 해야 함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.1 방정식을 알맞게 분석 해야 함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.2 미분을 알맞게 분석 해야 함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.2.1 삼각함수 미분을 알맞게 분석 해야 함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2.2 편미분을 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.3 풀이를 보여 주어야 함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.2 그래프를 보여 주어야 함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.1 값의 답을 보여 주어야 함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요구사항</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상세내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우선순위</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기능 여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 알맞게 결과를 출력해 주어야 함.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 계산기 기능을 수행할 수 있어야함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.1 일반 계산기 기능을 수행할 수 있어야 함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.2 공학 계산기 기능을 수행할 수 있어야 함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 카메라로 촬영한 이미지에서 문제를 인식 해야 함.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5 서술형 문제를 인식 해야 함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.3 과거의 풀이를 확인할 수 있어야 함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. 사용자 편의성을 갖추어야 함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.1 사용 설명을 제공해야 함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.2 직관적인 UI를 가져야함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5. 다양한 수식을 지원해야 함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.1.2 n차 방정식을 인식 해야 함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.1.1 연립 방적식을 인식 해야 함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.4 극한을 지원해야 함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.3 행렬식을 지원해야 함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.2 함수를 지원해야 함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.1 방정식을 지원해야 함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.5 로그를 지원해야 함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.5.3 지수로그를 지원 해야 함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.5.1 일반 로그를 지원 해야 함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.5.2 자연 로그를 지원 해야 함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.6 삼각함수를 지원해야 함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.7 순열과 조합을 인식해야 함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.8 루트를 인식해야 함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.9 수열을 인식해야 함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.7.1 이항 분포를 인식해야 함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.4.2 좌극한을 인식해야 함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.4.1 우극한을 인식해야 함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.4.3 일반 극한을 인식해야 함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.9.1 시그마를 인식해야 함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.10 n진수를 인식해야 함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.10.1 2진수를 인식해야함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.10.2 8진수를 인식해야 함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.10.3 16진수를 인식해야 함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.10.4 10진수를 인식해야 함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.11 백터를 인식해야 함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -41,6 +266,13 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="HY중고딕"/>
+      <family val="1"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -50,7 +282,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -58,14 +290,262 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -382,13 +862,1214 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:R96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q12" sqref="Q12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3.125" style="1" customWidth="1"/>
+    <col min="2" max="6" width="11.75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="5.625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="3.625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="2.375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="3.125" style="1" customWidth="1"/>
+    <col min="11" max="17" width="9" style="1"/>
+    <col min="18" max="18" width="2.375" style="1" customWidth="1"/>
+    <col min="19" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="4"/>
+    </row>
+    <row r="2" spans="1:18" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="7"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A3" s="5"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="7"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A4" s="5"/>
+      <c r="B4" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="20"/>
+      <c r="R4" s="7"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A5" s="5"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="21"/>
+      <c r="R5" s="7"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A6" s="5"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="21"/>
+      <c r="R6" s="7"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A7" s="5"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="21"/>
+      <c r="R7" s="7"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A8" s="5"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="21"/>
+      <c r="R8" s="7"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A9" s="5"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="21"/>
+      <c r="R9" s="7"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A10" s="5"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="21"/>
+      <c r="R10" s="7"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A11" s="5"/>
+      <c r="B11" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="21"/>
+      <c r="R11" s="7"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A12" s="5"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="21"/>
+      <c r="R12" s="7"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A13" s="5"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="21"/>
+      <c r="R13" s="7"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A14" s="5"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="21"/>
+      <c r="R14" s="7"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A15" s="5"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="21"/>
+      <c r="R15" s="7"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A16" s="5"/>
+      <c r="B16" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="21"/>
+      <c r="R16" s="7"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A17" s="5"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="21"/>
+      <c r="R17" s="7"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A18" s="5"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="21"/>
+      <c r="R18" s="7"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A19" s="5"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="21"/>
+      <c r="R19" s="7"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A20" s="5"/>
+      <c r="B20" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="21"/>
+      <c r="R20" s="7"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A21" s="5"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="21"/>
+      <c r="R21" s="7"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A22" s="5"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="21"/>
+      <c r="R22" s="7"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A23" s="5"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="6"/>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="21"/>
+      <c r="R23" s="7"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A24" s="5"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="18"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="6"/>
+      <c r="P24" s="6"/>
+      <c r="Q24" s="21"/>
+      <c r="R24" s="7"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A25" s="5"/>
+      <c r="B25" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="18"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
+      <c r="O25" s="6"/>
+      <c r="P25" s="6"/>
+      <c r="Q25" s="21"/>
+      <c r="R25" s="7"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A26" s="5"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="18"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="6"/>
+      <c r="O26" s="6"/>
+      <c r="P26" s="6"/>
+      <c r="Q26" s="21"/>
+      <c r="R26" s="7"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A27" s="5"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="18"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="6"/>
+      <c r="N27" s="6"/>
+      <c r="O27" s="6"/>
+      <c r="P27" s="6"/>
+      <c r="Q27" s="21"/>
+      <c r="R27" s="7"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A28" s="5"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="18"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="6"/>
+      <c r="N28" s="6"/>
+      <c r="O28" s="6"/>
+      <c r="P28" s="6"/>
+      <c r="Q28" s="21"/>
+      <c r="R28" s="7"/>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A29" s="5"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="18"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="6"/>
+      <c r="N29" s="6"/>
+      <c r="O29" s="6"/>
+      <c r="P29" s="6"/>
+      <c r="Q29" s="21"/>
+      <c r="R29" s="7"/>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A30" s="5"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="18"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="6"/>
+      <c r="N30" s="6"/>
+      <c r="O30" s="6"/>
+      <c r="P30" s="6"/>
+      <c r="Q30" s="21"/>
+      <c r="R30" s="7"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A31" s="5"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="18"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="6"/>
+      <c r="N31" s="6"/>
+      <c r="O31" s="6"/>
+      <c r="P31" s="6"/>
+      <c r="Q31" s="21"/>
+      <c r="R31" s="7"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A32" s="5"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="18"/>
+      <c r="L32" s="6"/>
+      <c r="M32" s="6"/>
+      <c r="N32" s="6"/>
+      <c r="O32" s="6"/>
+      <c r="P32" s="6"/>
+      <c r="Q32" s="21"/>
+      <c r="R32" s="7"/>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A33" s="5"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="21"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="18"/>
+      <c r="L33" s="6"/>
+      <c r="M33" s="6"/>
+      <c r="N33" s="6"/>
+      <c r="O33" s="6"/>
+      <c r="P33" s="6"/>
+      <c r="Q33" s="21"/>
+      <c r="R33" s="7"/>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A34" s="5"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="21"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="18"/>
+      <c r="L34" s="6"/>
+      <c r="M34" s="6"/>
+      <c r="N34" s="6"/>
+      <c r="O34" s="6"/>
+      <c r="P34" s="6"/>
+      <c r="Q34" s="21"/>
+      <c r="R34" s="7"/>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A35" s="5"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="21"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="18"/>
+      <c r="L35" s="6"/>
+      <c r="M35" s="6"/>
+      <c r="N35" s="6"/>
+      <c r="O35" s="6"/>
+      <c r="P35" s="6"/>
+      <c r="Q35" s="21"/>
+      <c r="R35" s="7"/>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A36" s="5"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="21"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="18"/>
+      <c r="L36" s="6"/>
+      <c r="M36" s="6"/>
+      <c r="N36" s="6"/>
+      <c r="O36" s="6"/>
+      <c r="P36" s="6"/>
+      <c r="Q36" s="21"/>
+      <c r="R36" s="7"/>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A37" s="5"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="21"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="18"/>
+      <c r="L37" s="6"/>
+      <c r="M37" s="6"/>
+      <c r="N37" s="6"/>
+      <c r="O37" s="6"/>
+      <c r="P37" s="6"/>
+      <c r="Q37" s="21"/>
+      <c r="R37" s="7"/>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A38" s="5"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="21"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="18"/>
+      <c r="L38" s="6"/>
+      <c r="M38" s="6"/>
+      <c r="N38" s="6"/>
+      <c r="O38" s="6"/>
+      <c r="P38" s="6"/>
+      <c r="Q38" s="21"/>
+      <c r="R38" s="7"/>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A39" s="5"/>
+      <c r="B39" s="18"/>
+      <c r="C39" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="21"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="18"/>
+      <c r="L39" s="6"/>
+      <c r="M39" s="6"/>
+      <c r="N39" s="6"/>
+      <c r="O39" s="6"/>
+      <c r="P39" s="6"/>
+      <c r="Q39" s="21"/>
+      <c r="R39" s="7"/>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A40" s="5"/>
+      <c r="B40" s="18"/>
+      <c r="C40" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="21"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="5"/>
+      <c r="K40" s="18"/>
+      <c r="L40" s="6"/>
+      <c r="M40" s="6"/>
+      <c r="N40" s="6"/>
+      <c r="O40" s="6"/>
+      <c r="P40" s="6"/>
+      <c r="Q40" s="21"/>
+      <c r="R40" s="7"/>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A41" s="5"/>
+      <c r="B41" s="18"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="21"/>
+      <c r="I41" s="6"/>
+      <c r="J41" s="5"/>
+      <c r="K41" s="18"/>
+      <c r="L41" s="6"/>
+      <c r="M41" s="6"/>
+      <c r="N41" s="6"/>
+      <c r="O41" s="6"/>
+      <c r="P41" s="6"/>
+      <c r="Q41" s="21"/>
+      <c r="R41" s="7"/>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A42" s="5"/>
+      <c r="B42" s="18"/>
+      <c r="C42" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="21"/>
+      <c r="I42" s="6"/>
+      <c r="J42" s="5"/>
+      <c r="K42" s="18"/>
+      <c r="L42" s="6"/>
+      <c r="M42" s="6"/>
+      <c r="N42" s="6"/>
+      <c r="O42" s="6"/>
+      <c r="P42" s="6"/>
+      <c r="Q42" s="21"/>
+      <c r="R42" s="7"/>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A43" s="5"/>
+      <c r="B43" s="18"/>
+      <c r="C43" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="21"/>
+      <c r="I43" s="6"/>
+      <c r="J43" s="5"/>
+      <c r="K43" s="18"/>
+      <c r="L43" s="6"/>
+      <c r="M43" s="6"/>
+      <c r="N43" s="6"/>
+      <c r="O43" s="6"/>
+      <c r="P43" s="6"/>
+      <c r="Q43" s="21"/>
+      <c r="R43" s="7"/>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A44" s="5"/>
+      <c r="B44" s="18"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="21"/>
+      <c r="I44" s="6"/>
+      <c r="J44" s="5"/>
+      <c r="K44" s="18"/>
+      <c r="L44" s="6"/>
+      <c r="M44" s="6"/>
+      <c r="N44" s="6"/>
+      <c r="O44" s="6"/>
+      <c r="P44" s="6"/>
+      <c r="Q44" s="21"/>
+      <c r="R44" s="7"/>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A45" s="5"/>
+      <c r="B45" s="18"/>
+      <c r="C45" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="21"/>
+      <c r="I45" s="6"/>
+      <c r="J45" s="5"/>
+      <c r="K45" s="18"/>
+      <c r="L45" s="6"/>
+      <c r="M45" s="6"/>
+      <c r="N45" s="6"/>
+      <c r="O45" s="6"/>
+      <c r="P45" s="6"/>
+      <c r="Q45" s="21"/>
+      <c r="R45" s="7"/>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A46" s="5"/>
+      <c r="B46" s="18"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="21"/>
+      <c r="I46" s="6"/>
+      <c r="J46" s="5"/>
+      <c r="K46" s="18"/>
+      <c r="L46" s="6"/>
+      <c r="M46" s="6"/>
+      <c r="N46" s="6"/>
+      <c r="O46" s="6"/>
+      <c r="P46" s="6"/>
+      <c r="Q46" s="21"/>
+      <c r="R46" s="7"/>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A47" s="5"/>
+      <c r="B47" s="18"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="21"/>
+      <c r="I47" s="6"/>
+      <c r="J47" s="5"/>
+      <c r="K47" s="18"/>
+      <c r="L47" s="6"/>
+      <c r="M47" s="6"/>
+      <c r="N47" s="6"/>
+      <c r="O47" s="6"/>
+      <c r="P47" s="6"/>
+      <c r="Q47" s="21"/>
+      <c r="R47" s="7"/>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A48" s="5"/>
+      <c r="B48" s="18"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="21"/>
+      <c r="I48" s="6"/>
+      <c r="J48" s="5"/>
+      <c r="K48" s="18"/>
+      <c r="L48" s="6"/>
+      <c r="M48" s="6"/>
+      <c r="N48" s="6"/>
+      <c r="O48" s="6"/>
+      <c r="P48" s="6"/>
+      <c r="Q48" s="21"/>
+      <c r="R48" s="7"/>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A49" s="5"/>
+      <c r="B49" s="18"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="21"/>
+      <c r="I49" s="6"/>
+      <c r="J49" s="5"/>
+      <c r="K49" s="18"/>
+      <c r="L49" s="6"/>
+      <c r="M49" s="6"/>
+      <c r="N49" s="6"/>
+      <c r="O49" s="6"/>
+      <c r="P49" s="6"/>
+      <c r="Q49" s="21"/>
+      <c r="R49" s="7"/>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A50" s="5"/>
+      <c r="B50" s="18"/>
+      <c r="C50" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="6"/>
+      <c r="H50" s="21"/>
+      <c r="I50" s="6"/>
+      <c r="J50" s="5"/>
+      <c r="K50" s="19"/>
+      <c r="L50" s="14"/>
+      <c r="M50" s="14"/>
+      <c r="N50" s="14"/>
+      <c r="O50" s="14"/>
+      <c r="P50" s="14"/>
+      <c r="Q50" s="22"/>
+      <c r="R50" s="7"/>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A51" s="5"/>
+      <c r="B51" s="19"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="14"/>
+      <c r="G51" s="14"/>
+      <c r="H51" s="22"/>
+      <c r="I51" s="6"/>
+      <c r="J51" s="5"/>
+      <c r="K51" s="6"/>
+      <c r="L51" s="6"/>
+      <c r="M51" s="6"/>
+      <c r="N51" s="6"/>
+      <c r="O51" s="6"/>
+      <c r="P51" s="6"/>
+      <c r="Q51" s="6"/>
+      <c r="R51" s="7"/>
+    </row>
+    <row r="52" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="8"/>
+      <c r="B52" s="9"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="9"/>
+      <c r="I52" s="9"/>
+      <c r="J52" s="8"/>
+      <c r="K52" s="9"/>
+      <c r="L52" s="9"/>
+      <c r="M52" s="9"/>
+      <c r="N52" s="9"/>
+      <c r="O52" s="9"/>
+      <c r="P52" s="9"/>
+      <c r="Q52" s="9"/>
+      <c r="R52" s="10"/>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A89" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B90" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C91" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C92" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B93" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C94" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C95" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A96" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:G2"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="9" max="1048575" man="1"/>
+  </colBreaks>
 </worksheet>
 </file>
--- a/Document/요구사항.xlsx
+++ b/Document/요구사항.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="5895"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="5895" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="1번" sheetId="1" r:id="rId1"/>
+    <sheet name="2번" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="170">
   <si>
     <t>1.1 컴퓨터 화면 이미지에서 수식을 인식</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -243,6 +244,461 @@
   </si>
   <si>
     <t>5.11 백터를 인식해야 함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 이미지에서 문제를 인식 해야 함.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1 카메라로 촬영된 이미지에서 특정 구역에 있는 문제를 인식해야함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.6 서술형 문제를 인식 해야 함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.2 저장된 이미지를 불러와 수식을 인식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 1. 1. 기본으로 지정된 구역이 있어야 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1. 1. 2. 사용자가 촬영할 구역을 임의로 지정할 수 있어야 한다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.3. 컴퓨터 화면 이미지에서 수식을 인식할 수 있어야 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.4. 책 이미지에서 수식을 인식할 수 있어야 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.5 손으로 쓴 수식 이미지에서 수식을 인식할 수 있어야 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.6.2. 식을 만들어야 하는 문제를 인식할 수 있어야 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.6.1. 식이 지문에 나와있는 문제를 인식할 수 있어야 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 2. 1. 저장된 이미지를 앨범에서 불러올 수 있어야 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.2.1.1. 시간에 따른 순서대로 보여줄 수 있어야 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.2.1.1.2. 오래된 순서대로 보여줄 수 있어야 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.2.1.1.1. 최근 순서대로 보여줄 수 있어야 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.2.1.2. 이름 순서대로 보여줄 수 있어야 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.2.1.2.2. 내림차순으로 보여줄 수 있어야 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.2.1.2.1. 오름차순으로 보여줄 수 있어야 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.2.1.3. 최근 불러온 순서대로 보여줄 수 있어야 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.2.1.3. 사용한 적이 없다면 시간 순서대로 보여줄 수 있어야 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.2.2. 저장된 이미지의 수식이 있는 부분을 지정할 수 있어야함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.2.3. 수식이 있는 사진만을 불러올 수 있어야 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>값의 답을 보여 주어야 함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래프를 보여 주어야 함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>풀이를 보여 주어야 함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>각 출력의 결과는 중복해서 보여줄 수 있어야한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>값의 길이가 길다면 스크롤뷰로 보여줄 수 있어야 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자가 답, 그래프, 풀이 중에 선택할 수 있도록, 기능을 제공해야 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.1.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.1.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.1.3</t>
+  </si>
+  <si>
+    <t>2.1.4</t>
+  </si>
+  <si>
+    <t>2.1.5</t>
+  </si>
+  <si>
+    <t>2.1.6</t>
+  </si>
+  <si>
+    <t>사용자가 원하는 결과를 중복으로 선택할 수 있어야 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.1.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원하는 결과를 출력해 주어야 함.</t>
+  </si>
+  <si>
+    <t>4.2 메테리얼 디자인 가이드 라인을 따라야 함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간 순서대로 풀이를 보여줄 수 있어야 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최근 순서대로 보여줄 수 있어야 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오래된 순서대로 보여줄 수 있어야 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.3.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.3.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>많이 열어본 순서대로 보여줄 수 있어야 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.3.1.2.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.3.1.1.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수식을 인식하면 사용자가 원하는 수식이 맞는지 확인할 수 있어야함.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.4.1. 수식이 맞는 경우 원하는 결과를 보여줄 수 있어야함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.4.2. 수식이 다른 경우 다시 촬영할 수 있도록 해주어야 함.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.4.3. 수식이 다른 경우 어플리케이션이 촬영 결과와 유사한 수식을 제시해주어야 함.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.4.4. 수식이 다른 경우 사용자가 수식을 수정할 수 있어야 함.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5. 여러 기호를 인식할 수 있어야 함.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.1. 분수를 인식할 수 있어야함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.1.1. 연분수를 인식할 수 있어야 함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.2. 지수를 인식할 수 있어야 함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.3. 사칙연산 기호를 인식할 수 있어야 함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.4. 적분 기호를 인식할 수 있어야 함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.6. 루트 기호를 인식할 수 있어야 함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.5. 미분 기호를 인식할 수 있어야 함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.4.1 정적분 범위를 인식할 수 있어야 함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.4.2. 부정적분을 인식할 수 있어야 함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.6.1. N제곱근의 첨자를 인식할 수 있어야 함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.7. 미지수를 인식할 수 있어야 함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.8. ± 기호를 인식할 수 있어야 함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.9. 시그마를 인식할 수 있어야 함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.10. 부등호(&lt;,&gt;,&lt;=,&gt;=) 를 인식할 수 있어야 함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.11. 상수 e를 인식할 수 있어야 함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.12. log를 인식할 수 있어야 함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.12.1. 자연로그(ln)을 인식할 수 있어야 함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.12.2. log의 밑수를 인식할 수 있어야 함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.13. 극한 기호(lim)를 인식할 수 있어야 함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.13.2. 우극한을 인식할 수 있어야 함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.13.1. 좌극한을 인식할 수 있어야 함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.14. 절대값을 인식해야 함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.12. 허수(i)를 인식할 수 있어야 함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.15. 괄호를 인식할 수 있어야 함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.15.1 행렬 괄호와 일반 괄호를 구분할 수 있어야 함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.15.2. 대괄호, 중괄호, 소괄호를 구분할 수 있어야 함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.여러 연산을 지원 해야함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.1. 사칙 연산을 지원해야 함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.2. 미분을 지원해야 함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.3. 적분을 지원해야 함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.3.1. 정적분을 지원해야 함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.3.2. 부정적분을 지원해야 함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.4. 극한을 지원해야 함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.4.1. 우극한을 지원해야 함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.4.2. 좌을 지원해야 함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.16. 세타 기호를 인식할 수 있어야 함.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.17. 삼각 함수 기호를 인식해야 함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.5. 행렬 연산을 지원해야 함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.5.2. 행렬의 곱을 지원해야 함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.5.1. 행렬의 합을 지원해야 함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.18.1. nPr 기호를 인식해야 함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.18.2 nCr 기호를 인식해야 함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.18. 순열 및 조합 기호를 인식해야 함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.18.3 팩토리얼(!) 기호를 인식해야 함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.7. 시그마 연산을 지원해야 함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.6. 순열 및 조합 연산을 지원해야 함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.8. 방정식 지원해야 함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.8.1. 연립 방정식을 지원해야함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.8.1.1. 연립 방정식의 식의 개수는 3개로 제한 함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.8.2. 유리 방정식을 지원해야 함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.8.3. 무리 방정식을 지원해야 함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.8.2.1. 방정식의 차수를 5차까지 제한 함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.8.3.1. 방정식의 차수를 5차까지 제한 함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.8.4. 지수 방정식을 지원해야 함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.8.5. 미분 방정식을 지원해야 함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.8.6. 적분 방정식을 지원해야 함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.8.7. 삼각함수 방정식을 지원해야 함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.19. 백터 기호를 인식해야 함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.20. π기호를 인식해야 함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.6.1. nPr 연산을 지원해야 함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.6.2 nCr 연산을 지원해야 함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.6.3 팩토리얼(!) 연산을 지원해야 함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.7.1 영문 및 로마자를 인식할 수 있어야 함</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -282,7 +738,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -371,6 +827,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -469,13 +934,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -509,25 +996,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
@@ -545,7 +1026,28 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -864,8 +1366,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K45" sqref="K45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -889,7 +1391,7 @@
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
-      <c r="H1" s="16"/>
+      <c r="H1" s="15"/>
       <c r="I1" s="3"/>
       <c r="J1" s="2"/>
       <c r="K1" s="3"/>
@@ -898,28 +1400,28 @@
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
-      <c r="Q1" s="16"/>
+      <c r="Q1" s="15"/>
       <c r="R1" s="4"/>
     </row>
     <row r="2" spans="1:18" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
       <c r="Q2" s="6"/>
       <c r="R2" s="7"/>
     </row>
@@ -934,40 +1436,40 @@
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
       <c r="J3" s="5"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="24"/>
       <c r="R3" s="7"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="20"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="19"/>
       <c r="I4" s="6"/>
       <c r="J4" s="5"/>
       <c r="K4" s="17"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="13"/>
-      <c r="P4" s="13"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
       <c r="Q4" s="20"/>
       <c r="R4" s="7"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
-      <c r="B5" s="18"/>
+      <c r="B5" s="17"/>
       <c r="C5" s="6" t="s">
         <v>0</v>
       </c>
@@ -975,21 +1477,21 @@
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
-      <c r="H5" s="21"/>
+      <c r="H5" s="20"/>
       <c r="I5" s="6"/>
       <c r="J5" s="5"/>
-      <c r="K5" s="18"/>
+      <c r="K5" s="17"/>
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
       <c r="N5" s="6"/>
       <c r="O5" s="6"/>
       <c r="P5" s="6"/>
-      <c r="Q5" s="21"/>
+      <c r="Q5" s="20"/>
       <c r="R5" s="7"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
-      <c r="B6" s="18"/>
+      <c r="B6" s="17"/>
       <c r="C6" s="6" t="s">
         <v>1</v>
       </c>
@@ -997,21 +1499,21 @@
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
-      <c r="H6" s="21"/>
+      <c r="H6" s="20"/>
       <c r="I6" s="6"/>
       <c r="J6" s="5"/>
-      <c r="K6" s="18"/>
+      <c r="K6" s="17"/>
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
       <c r="N6" s="6"/>
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
-      <c r="Q6" s="21"/>
+      <c r="Q6" s="20"/>
       <c r="R6" s="7"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="5"/>
-      <c r="B7" s="18"/>
+      <c r="B7" s="17"/>
       <c r="C7" s="6" t="s">
         <v>2</v>
       </c>
@@ -1019,21 +1521,21 @@
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
-      <c r="H7" s="21"/>
+      <c r="H7" s="20"/>
       <c r="I7" s="6"/>
       <c r="J7" s="5"/>
-      <c r="K7" s="18"/>
+      <c r="K7" s="17"/>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
       <c r="N7" s="6"/>
       <c r="O7" s="6"/>
       <c r="P7" s="6"/>
-      <c r="Q7" s="21"/>
+      <c r="Q7" s="20"/>
       <c r="R7" s="7"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
-      <c r="B8" s="18"/>
+      <c r="B8" s="17"/>
       <c r="C8" s="6" t="s">
         <v>3</v>
       </c>
@@ -1041,21 +1543,21 @@
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
-      <c r="H8" s="21"/>
+      <c r="H8" s="20"/>
       <c r="I8" s="6"/>
       <c r="J8" s="5"/>
-      <c r="K8" s="18"/>
+      <c r="K8" s="17"/>
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
       <c r="N8" s="6"/>
       <c r="O8" s="6"/>
       <c r="P8" s="6"/>
-      <c r="Q8" s="21"/>
+      <c r="Q8" s="20"/>
       <c r="R8" s="7"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="5"/>
-      <c r="B9" s="18"/>
+      <c r="B9" s="17"/>
       <c r="C9" s="6" t="s">
         <v>24</v>
       </c>
@@ -1063,63 +1565,63 @@
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
-      <c r="H9" s="21"/>
+      <c r="H9" s="20"/>
       <c r="I9" s="6"/>
       <c r="J9" s="5"/>
-      <c r="K9" s="18"/>
+      <c r="K9" s="17"/>
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
       <c r="N9" s="6"/>
       <c r="O9" s="6"/>
       <c r="P9" s="6"/>
-      <c r="Q9" s="21"/>
+      <c r="Q9" s="20"/>
       <c r="R9" s="7"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
-      <c r="B10" s="18"/>
+      <c r="B10" s="17"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
-      <c r="H10" s="21"/>
+      <c r="H10" s="20"/>
       <c r="I10" s="6"/>
       <c r="J10" s="5"/>
-      <c r="K10" s="18"/>
+      <c r="K10" s="17"/>
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
       <c r="N10" s="6"/>
       <c r="O10" s="6"/>
       <c r="P10" s="6"/>
-      <c r="Q10" s="21"/>
+      <c r="Q10" s="20"/>
       <c r="R10" s="7"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="20"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="19"/>
       <c r="I11" s="6"/>
       <c r="J11" s="5"/>
-      <c r="K11" s="18"/>
+      <c r="K11" s="17"/>
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
       <c r="N11" s="6"/>
       <c r="O11" s="6"/>
       <c r="P11" s="6"/>
-      <c r="Q11" s="21"/>
+      <c r="Q11" s="20"/>
       <c r="R11" s="7"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
-      <c r="B12" s="18"/>
+      <c r="B12" s="17"/>
       <c r="C12" s="6" t="s">
         <v>13</v>
       </c>
@@ -1127,21 +1629,21 @@
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
-      <c r="H12" s="21"/>
+      <c r="H12" s="20"/>
       <c r="I12" s="6"/>
       <c r="J12" s="5"/>
-      <c r="K12" s="18"/>
+      <c r="K12" s="17"/>
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
       <c r="N12" s="6"/>
       <c r="O12" s="6"/>
       <c r="P12" s="6"/>
-      <c r="Q12" s="21"/>
+      <c r="Q12" s="20"/>
       <c r="R12" s="7"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
-      <c r="B13" s="18"/>
+      <c r="B13" s="17"/>
       <c r="C13" s="6" t="s">
         <v>12</v>
       </c>
@@ -1149,21 +1651,21 @@
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
-      <c r="H13" s="21"/>
+      <c r="H13" s="20"/>
       <c r="I13" s="6"/>
       <c r="J13" s="5"/>
-      <c r="K13" s="18"/>
+      <c r="K13" s="17"/>
       <c r="L13" s="6"/>
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
       <c r="O13" s="6"/>
       <c r="P13" s="6"/>
-      <c r="Q13" s="21"/>
+      <c r="Q13" s="20"/>
       <c r="R13" s="7"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="5"/>
-      <c r="B14" s="18"/>
+      <c r="B14" s="17"/>
       <c r="C14" s="6" t="s">
         <v>11</v>
       </c>
@@ -1171,63 +1673,63 @@
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
-      <c r="H14" s="21"/>
+      <c r="H14" s="20"/>
       <c r="I14" s="6"/>
       <c r="J14" s="5"/>
-      <c r="K14" s="18"/>
+      <c r="K14" s="17"/>
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
       <c r="N14" s="6"/>
       <c r="O14" s="6"/>
       <c r="P14" s="6"/>
-      <c r="Q14" s="21"/>
+      <c r="Q14" s="20"/>
       <c r="R14" s="7"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="5"/>
-      <c r="B15" s="18"/>
+      <c r="B15" s="17"/>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
-      <c r="H15" s="21"/>
+      <c r="H15" s="20"/>
       <c r="I15" s="6"/>
       <c r="J15" s="5"/>
-      <c r="K15" s="18"/>
+      <c r="K15" s="17"/>
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
       <c r="N15" s="6"/>
       <c r="O15" s="6"/>
       <c r="P15" s="6"/>
-      <c r="Q15" s="21"/>
+      <c r="Q15" s="20"/>
       <c r="R15" s="7"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="20"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="19"/>
       <c r="I16" s="6"/>
       <c r="J16" s="5"/>
-      <c r="K16" s="18"/>
+      <c r="K16" s="17"/>
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
       <c r="N16" s="6"/>
       <c r="O16" s="6"/>
       <c r="P16" s="6"/>
-      <c r="Q16" s="21"/>
+      <c r="Q16" s="20"/>
       <c r="R16" s="7"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" s="5"/>
-      <c r="B17" s="18"/>
+      <c r="B17" s="17"/>
       <c r="C17" s="6" t="s">
         <v>21</v>
       </c>
@@ -1235,21 +1737,21 @@
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
-      <c r="H17" s="21"/>
+      <c r="H17" s="20"/>
       <c r="I17" s="6"/>
       <c r="J17" s="5"/>
-      <c r="K17" s="18"/>
+      <c r="K17" s="17"/>
       <c r="L17" s="6"/>
       <c r="M17" s="6"/>
       <c r="N17" s="6"/>
       <c r="O17" s="6"/>
       <c r="P17" s="6"/>
-      <c r="Q17" s="21"/>
+      <c r="Q17" s="20"/>
       <c r="R17" s="7"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" s="5"/>
-      <c r="B18" s="18"/>
+      <c r="B18" s="17"/>
       <c r="C18" s="6" t="s">
         <v>22</v>
       </c>
@@ -1257,63 +1759,63 @@
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
-      <c r="H18" s="21"/>
+      <c r="H18" s="20"/>
       <c r="I18" s="6"/>
       <c r="J18" s="5"/>
-      <c r="K18" s="18"/>
+      <c r="K18" s="17"/>
       <c r="L18" s="6"/>
       <c r="M18" s="6"/>
       <c r="N18" s="6"/>
       <c r="O18" s="6"/>
       <c r="P18" s="6"/>
-      <c r="Q18" s="21"/>
+      <c r="Q18" s="20"/>
       <c r="R18" s="7"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" s="5"/>
-      <c r="B19" s="18"/>
+      <c r="B19" s="17"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
-      <c r="H19" s="21"/>
+      <c r="H19" s="20"/>
       <c r="I19" s="6"/>
       <c r="J19" s="5"/>
-      <c r="K19" s="18"/>
+      <c r="K19" s="17"/>
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>
       <c r="N19" s="6"/>
       <c r="O19" s="6"/>
       <c r="P19" s="6"/>
-      <c r="Q19" s="21"/>
+      <c r="Q19" s="20"/>
       <c r="R19" s="7"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="20"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="19"/>
       <c r="I20" s="6"/>
       <c r="J20" s="5"/>
-      <c r="K20" s="18"/>
+      <c r="K20" s="17"/>
       <c r="L20" s="6"/>
       <c r="M20" s="6"/>
       <c r="N20" s="6"/>
       <c r="O20" s="6"/>
       <c r="P20" s="6"/>
-      <c r="Q20" s="21"/>
+      <c r="Q20" s="20"/>
       <c r="R20" s="7"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21" s="5"/>
-      <c r="B21" s="18"/>
+      <c r="B21" s="17"/>
       <c r="C21" s="6" t="s">
         <v>27</v>
       </c>
@@ -1321,21 +1823,21 @@
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
-      <c r="H21" s="21"/>
+      <c r="H21" s="20"/>
       <c r="I21" s="6"/>
       <c r="J21" s="5"/>
-      <c r="K21" s="18"/>
+      <c r="K21" s="17"/>
       <c r="L21" s="6"/>
       <c r="M21" s="6"/>
       <c r="N21" s="6"/>
       <c r="O21" s="6"/>
       <c r="P21" s="6"/>
-      <c r="Q21" s="21"/>
+      <c r="Q21" s="20"/>
       <c r="R21" s="7"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22" s="5"/>
-      <c r="B22" s="18"/>
+      <c r="B22" s="17"/>
       <c r="C22" s="6" t="s">
         <v>28</v>
       </c>
@@ -1343,21 +1845,21 @@
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
-      <c r="H22" s="21"/>
+      <c r="H22" s="20"/>
       <c r="I22" s="6"/>
       <c r="J22" s="5"/>
-      <c r="K22" s="18"/>
+      <c r="K22" s="17"/>
       <c r="L22" s="6"/>
       <c r="M22" s="6"/>
       <c r="N22" s="6"/>
       <c r="O22" s="6"/>
       <c r="P22" s="6"/>
-      <c r="Q22" s="21"/>
+      <c r="Q22" s="20"/>
       <c r="R22" s="7"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23" s="5"/>
-      <c r="B23" s="18"/>
+      <c r="B23" s="17"/>
       <c r="C23" s="6" t="s">
         <v>25</v>
       </c>
@@ -1365,63 +1867,63 @@
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
-      <c r="H23" s="21"/>
+      <c r="H23" s="20"/>
       <c r="I23" s="6"/>
       <c r="J23" s="5"/>
-      <c r="K23" s="18"/>
+      <c r="K23" s="17"/>
       <c r="L23" s="6"/>
       <c r="M23" s="6"/>
       <c r="N23" s="6"/>
       <c r="O23" s="6"/>
       <c r="P23" s="6"/>
-      <c r="Q23" s="21"/>
+      <c r="Q23" s="20"/>
       <c r="R23" s="7"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24" s="5"/>
-      <c r="B24" s="18"/>
+      <c r="B24" s="17"/>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
-      <c r="H24" s="21"/>
+      <c r="H24" s="20"/>
       <c r="I24" s="6"/>
       <c r="J24" s="5"/>
-      <c r="K24" s="18"/>
+      <c r="K24" s="17"/>
       <c r="L24" s="6"/>
       <c r="M24" s="6"/>
       <c r="N24" s="6"/>
       <c r="O24" s="6"/>
       <c r="P24" s="6"/>
-      <c r="Q24" s="21"/>
+      <c r="Q24" s="20"/>
       <c r="R24" s="7"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A25" s="5"/>
-      <c r="B25" s="17" t="s">
+      <c r="B25" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="20"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="19"/>
       <c r="I25" s="6"/>
       <c r="J25" s="5"/>
-      <c r="K25" s="18"/>
+      <c r="K25" s="17"/>
       <c r="L25" s="6"/>
       <c r="M25" s="6"/>
       <c r="N25" s="6"/>
       <c r="O25" s="6"/>
       <c r="P25" s="6"/>
-      <c r="Q25" s="21"/>
+      <c r="Q25" s="20"/>
       <c r="R25" s="7"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A26" s="5"/>
-      <c r="B26" s="18"/>
+      <c r="B26" s="17"/>
       <c r="C26" s="6" t="s">
         <v>35</v>
       </c>
@@ -1429,21 +1931,21 @@
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
-      <c r="H26" s="21"/>
+      <c r="H26" s="20"/>
       <c r="I26" s="6"/>
       <c r="J26" s="5"/>
-      <c r="K26" s="18"/>
+      <c r="K26" s="17"/>
       <c r="L26" s="6"/>
       <c r="M26" s="6"/>
       <c r="N26" s="6"/>
       <c r="O26" s="6"/>
       <c r="P26" s="6"/>
-      <c r="Q26" s="21"/>
+      <c r="Q26" s="20"/>
       <c r="R26" s="7"/>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A27" s="5"/>
-      <c r="B27" s="18"/>
+      <c r="B27" s="17"/>
       <c r="C27" s="6"/>
       <c r="D27" s="6" t="s">
         <v>31</v>
@@ -1451,21 +1953,21 @@
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
-      <c r="H27" s="21"/>
+      <c r="H27" s="20"/>
       <c r="I27" s="6"/>
       <c r="J27" s="5"/>
-      <c r="K27" s="18"/>
+      <c r="K27" s="17"/>
       <c r="L27" s="6"/>
       <c r="M27" s="6"/>
       <c r="N27" s="6"/>
       <c r="O27" s="6"/>
       <c r="P27" s="6"/>
-      <c r="Q27" s="21"/>
+      <c r="Q27" s="20"/>
       <c r="R27" s="7"/>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A28" s="5"/>
-      <c r="B28" s="18"/>
+      <c r="B28" s="17"/>
       <c r="C28" s="6"/>
       <c r="D28" s="6" t="s">
         <v>30</v>
@@ -1473,21 +1975,21 @@
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
-      <c r="H28" s="21"/>
+      <c r="H28" s="20"/>
       <c r="I28" s="6"/>
       <c r="J28" s="5"/>
-      <c r="K28" s="18"/>
+      <c r="K28" s="17"/>
       <c r="L28" s="6"/>
       <c r="M28" s="6"/>
       <c r="N28" s="6"/>
       <c r="O28" s="6"/>
       <c r="P28" s="6"/>
-      <c r="Q28" s="21"/>
+      <c r="Q28" s="20"/>
       <c r="R28" s="7"/>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A29" s="5"/>
-      <c r="B29" s="18"/>
+      <c r="B29" s="17"/>
       <c r="C29" s="6" t="s">
         <v>34</v>
       </c>
@@ -1495,21 +1997,21 @@
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
-      <c r="H29" s="21"/>
+      <c r="H29" s="20"/>
       <c r="I29" s="6"/>
       <c r="J29" s="5"/>
-      <c r="K29" s="18"/>
+      <c r="K29" s="17"/>
       <c r="L29" s="6"/>
       <c r="M29" s="6"/>
       <c r="N29" s="6"/>
       <c r="O29" s="6"/>
       <c r="P29" s="6"/>
-      <c r="Q29" s="21"/>
+      <c r="Q29" s="20"/>
       <c r="R29" s="7"/>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A30" s="5"/>
-      <c r="B30" s="18"/>
+      <c r="B30" s="17"/>
       <c r="C30" s="6" t="s">
         <v>33</v>
       </c>
@@ -1517,21 +2019,21 @@
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
-      <c r="H30" s="21"/>
+      <c r="H30" s="20"/>
       <c r="I30" s="6"/>
       <c r="J30" s="5"/>
-      <c r="K30" s="18"/>
+      <c r="K30" s="17"/>
       <c r="L30" s="6"/>
       <c r="M30" s="6"/>
       <c r="N30" s="6"/>
       <c r="O30" s="6"/>
       <c r="P30" s="6"/>
-      <c r="Q30" s="21"/>
+      <c r="Q30" s="20"/>
       <c r="R30" s="7"/>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A31" s="5"/>
-      <c r="B31" s="18"/>
+      <c r="B31" s="17"/>
       <c r="C31" s="6" t="s">
         <v>32</v>
       </c>
@@ -1539,21 +2041,21 @@
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
-      <c r="H31" s="21"/>
+      <c r="H31" s="20"/>
       <c r="I31" s="6"/>
       <c r="J31" s="5"/>
-      <c r="K31" s="18"/>
+      <c r="K31" s="17"/>
       <c r="L31" s="6"/>
       <c r="M31" s="6"/>
       <c r="N31" s="6"/>
       <c r="O31" s="6"/>
       <c r="P31" s="6"/>
-      <c r="Q31" s="21"/>
+      <c r="Q31" s="20"/>
       <c r="R31" s="7"/>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A32" s="5"/>
-      <c r="B32" s="18"/>
+      <c r="B32" s="17"/>
       <c r="C32" s="6"/>
       <c r="D32" s="6" t="s">
         <v>46</v>
@@ -1561,21 +2063,21 @@
       <c r="E32" s="6"/>
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
-      <c r="H32" s="21"/>
+      <c r="H32" s="20"/>
       <c r="I32" s="6"/>
       <c r="J32" s="5"/>
-      <c r="K32" s="18"/>
+      <c r="K32" s="17"/>
       <c r="L32" s="6"/>
       <c r="M32" s="6"/>
       <c r="N32" s="6"/>
       <c r="O32" s="6"/>
       <c r="P32" s="6"/>
-      <c r="Q32" s="21"/>
+      <c r="Q32" s="20"/>
       <c r="R32" s="7"/>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A33" s="5"/>
-      <c r="B33" s="18"/>
+      <c r="B33" s="17"/>
       <c r="C33" s="6"/>
       <c r="D33" s="6" t="s">
         <v>45</v>
@@ -1583,21 +2085,21 @@
       <c r="E33" s="6"/>
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
-      <c r="H33" s="21"/>
+      <c r="H33" s="20"/>
       <c r="I33" s="6"/>
       <c r="J33" s="5"/>
-      <c r="K33" s="18"/>
+      <c r="K33" s="17"/>
       <c r="L33" s="6"/>
       <c r="M33" s="6"/>
       <c r="N33" s="6"/>
       <c r="O33" s="6"/>
       <c r="P33" s="6"/>
-      <c r="Q33" s="21"/>
+      <c r="Q33" s="20"/>
       <c r="R33" s="7"/>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A34" s="5"/>
-      <c r="B34" s="18"/>
+      <c r="B34" s="17"/>
       <c r="C34" s="6"/>
       <c r="D34" s="6" t="s">
         <v>47</v>
@@ -1605,21 +2107,21 @@
       <c r="E34" s="6"/>
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
-      <c r="H34" s="21"/>
+      <c r="H34" s="20"/>
       <c r="I34" s="6"/>
       <c r="J34" s="5"/>
-      <c r="K34" s="18"/>
+      <c r="K34" s="17"/>
       <c r="L34" s="6"/>
       <c r="M34" s="6"/>
       <c r="N34" s="6"/>
       <c r="O34" s="6"/>
       <c r="P34" s="6"/>
-      <c r="Q34" s="21"/>
+      <c r="Q34" s="20"/>
       <c r="R34" s="7"/>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A35" s="5"/>
-      <c r="B35" s="18"/>
+      <c r="B35" s="17"/>
       <c r="C35" s="6" t="s">
         <v>36</v>
       </c>
@@ -1627,21 +2129,21 @@
       <c r="E35" s="6"/>
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
-      <c r="H35" s="21"/>
+      <c r="H35" s="20"/>
       <c r="I35" s="6"/>
       <c r="J35" s="5"/>
-      <c r="K35" s="18"/>
+      <c r="K35" s="17"/>
       <c r="L35" s="6"/>
       <c r="M35" s="6"/>
       <c r="N35" s="6"/>
       <c r="O35" s="6"/>
       <c r="P35" s="6"/>
-      <c r="Q35" s="21"/>
+      <c r="Q35" s="20"/>
       <c r="R35" s="7"/>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A36" s="5"/>
-      <c r="B36" s="18"/>
+      <c r="B36" s="17"/>
       <c r="C36" s="6"/>
       <c r="D36" s="6" t="s">
         <v>38</v>
@@ -1649,21 +2151,21 @@
       <c r="E36" s="6"/>
       <c r="F36" s="6"/>
       <c r="G36" s="6"/>
-      <c r="H36" s="21"/>
+      <c r="H36" s="20"/>
       <c r="I36" s="6"/>
       <c r="J36" s="5"/>
-      <c r="K36" s="18"/>
+      <c r="K36" s="17"/>
       <c r="L36" s="6"/>
       <c r="M36" s="6"/>
       <c r="N36" s="6"/>
       <c r="O36" s="6"/>
       <c r="P36" s="6"/>
-      <c r="Q36" s="21"/>
+      <c r="Q36" s="20"/>
       <c r="R36" s="7"/>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A37" s="5"/>
-      <c r="B37" s="18"/>
+      <c r="B37" s="17"/>
       <c r="C37" s="6"/>
       <c r="D37" s="6" t="s">
         <v>39</v>
@@ -1671,21 +2173,21 @@
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
-      <c r="H37" s="21"/>
+      <c r="H37" s="20"/>
       <c r="I37" s="6"/>
       <c r="J37" s="5"/>
-      <c r="K37" s="18"/>
+      <c r="K37" s="17"/>
       <c r="L37" s="6"/>
       <c r="M37" s="6"/>
       <c r="N37" s="6"/>
       <c r="O37" s="6"/>
       <c r="P37" s="6"/>
-      <c r="Q37" s="21"/>
+      <c r="Q37" s="20"/>
       <c r="R37" s="7"/>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A38" s="5"/>
-      <c r="B38" s="18"/>
+      <c r="B38" s="17"/>
       <c r="C38" s="6"/>
       <c r="D38" s="6" t="s">
         <v>37</v>
@@ -1693,21 +2195,21 @@
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
-      <c r="H38" s="21"/>
+      <c r="H38" s="20"/>
       <c r="I38" s="6"/>
       <c r="J38" s="5"/>
-      <c r="K38" s="18"/>
+      <c r="K38" s="17"/>
       <c r="L38" s="6"/>
       <c r="M38" s="6"/>
       <c r="N38" s="6"/>
       <c r="O38" s="6"/>
       <c r="P38" s="6"/>
-      <c r="Q38" s="21"/>
+      <c r="Q38" s="20"/>
       <c r="R38" s="7"/>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A39" s="5"/>
-      <c r="B39" s="18"/>
+      <c r="B39" s="17"/>
       <c r="C39" s="6" t="s">
         <v>40</v>
       </c>
@@ -1715,21 +2217,21 @@
       <c r="E39" s="6"/>
       <c r="F39" s="6"/>
       <c r="G39" s="6"/>
-      <c r="H39" s="21"/>
+      <c r="H39" s="20"/>
       <c r="I39" s="6"/>
       <c r="J39" s="5"/>
-      <c r="K39" s="18"/>
+      <c r="K39" s="17"/>
       <c r="L39" s="6"/>
       <c r="M39" s="6"/>
       <c r="N39" s="6"/>
       <c r="O39" s="6"/>
       <c r="P39" s="6"/>
-      <c r="Q39" s="21"/>
+      <c r="Q39" s="20"/>
       <c r="R39" s="7"/>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A40" s="5"/>
-      <c r="B40" s="18"/>
+      <c r="B40" s="17"/>
       <c r="C40" s="6" t="s">
         <v>41</v>
       </c>
@@ -1737,21 +2239,21 @@
       <c r="E40" s="6"/>
       <c r="F40" s="6"/>
       <c r="G40" s="6"/>
-      <c r="H40" s="21"/>
+      <c r="H40" s="20"/>
       <c r="I40" s="6"/>
       <c r="J40" s="5"/>
-      <c r="K40" s="18"/>
+      <c r="K40" s="17"/>
       <c r="L40" s="6"/>
       <c r="M40" s="6"/>
       <c r="N40" s="6"/>
       <c r="O40" s="6"/>
       <c r="P40" s="6"/>
-      <c r="Q40" s="21"/>
+      <c r="Q40" s="20"/>
       <c r="R40" s="7"/>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A41" s="5"/>
-      <c r="B41" s="18"/>
+      <c r="B41" s="17"/>
       <c r="C41" s="6"/>
       <c r="D41" s="6" t="s">
         <v>44</v>
@@ -1759,21 +2261,21 @@
       <c r="E41" s="6"/>
       <c r="F41" s="6"/>
       <c r="G41" s="6"/>
-      <c r="H41" s="21"/>
+      <c r="H41" s="20"/>
       <c r="I41" s="6"/>
       <c r="J41" s="5"/>
-      <c r="K41" s="18"/>
+      <c r="K41" s="17"/>
       <c r="L41" s="6"/>
       <c r="M41" s="6"/>
       <c r="N41" s="6"/>
       <c r="O41" s="6"/>
       <c r="P41" s="6"/>
-      <c r="Q41" s="21"/>
+      <c r="Q41" s="20"/>
       <c r="R41" s="7"/>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A42" s="5"/>
-      <c r="B42" s="18"/>
+      <c r="B42" s="17"/>
       <c r="C42" s="6" t="s">
         <v>42</v>
       </c>
@@ -1781,21 +2283,21 @@
       <c r="E42" s="6"/>
       <c r="F42" s="6"/>
       <c r="G42" s="6"/>
-      <c r="H42" s="21"/>
+      <c r="H42" s="20"/>
       <c r="I42" s="6"/>
       <c r="J42" s="5"/>
-      <c r="K42" s="18"/>
+      <c r="K42" s="17"/>
       <c r="L42" s="6"/>
       <c r="M42" s="6"/>
       <c r="N42" s="6"/>
       <c r="O42" s="6"/>
       <c r="P42" s="6"/>
-      <c r="Q42" s="21"/>
+      <c r="Q42" s="20"/>
       <c r="R42" s="7"/>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A43" s="5"/>
-      <c r="B43" s="18"/>
+      <c r="B43" s="17"/>
       <c r="C43" s="6" t="s">
         <v>43</v>
       </c>
@@ -1803,21 +2305,21 @@
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
-      <c r="H43" s="21"/>
+      <c r="H43" s="20"/>
       <c r="I43" s="6"/>
       <c r="J43" s="5"/>
-      <c r="K43" s="18"/>
+      <c r="K43" s="17"/>
       <c r="L43" s="6"/>
       <c r="M43" s="6"/>
       <c r="N43" s="6"/>
       <c r="O43" s="6"/>
       <c r="P43" s="6"/>
-      <c r="Q43" s="21"/>
+      <c r="Q43" s="20"/>
       <c r="R43" s="7"/>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A44" s="5"/>
-      <c r="B44" s="18"/>
+      <c r="B44" s="17"/>
       <c r="C44" s="6"/>
       <c r="D44" s="6" t="s">
         <v>48</v>
@@ -1825,21 +2327,21 @@
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
-      <c r="H44" s="21"/>
+      <c r="H44" s="20"/>
       <c r="I44" s="6"/>
       <c r="J44" s="5"/>
-      <c r="K44" s="18"/>
+      <c r="K44" s="17"/>
       <c r="L44" s="6"/>
       <c r="M44" s="6"/>
       <c r="N44" s="6"/>
       <c r="O44" s="6"/>
       <c r="P44" s="6"/>
-      <c r="Q44" s="21"/>
+      <c r="Q44" s="20"/>
       <c r="R44" s="7"/>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A45" s="5"/>
-      <c r="B45" s="18"/>
+      <c r="B45" s="17"/>
       <c r="C45" s="6" t="s">
         <v>49</v>
       </c>
@@ -1847,21 +2349,21 @@
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
-      <c r="H45" s="21"/>
+      <c r="H45" s="20"/>
       <c r="I45" s="6"/>
       <c r="J45" s="5"/>
-      <c r="K45" s="18"/>
+      <c r="K45" s="17"/>
       <c r="L45" s="6"/>
       <c r="M45" s="6"/>
       <c r="N45" s="6"/>
       <c r="O45" s="6"/>
       <c r="P45" s="6"/>
-      <c r="Q45" s="21"/>
+      <c r="Q45" s="20"/>
       <c r="R45" s="7"/>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A46" s="5"/>
-      <c r="B46" s="18"/>
+      <c r="B46" s="17"/>
       <c r="C46" s="6"/>
       <c r="D46" s="6" t="s">
         <v>50</v>
@@ -1869,21 +2371,21 @@
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
-      <c r="H46" s="21"/>
+      <c r="H46" s="20"/>
       <c r="I46" s="6"/>
       <c r="J46" s="5"/>
-      <c r="K46" s="18"/>
+      <c r="K46" s="17"/>
       <c r="L46" s="6"/>
       <c r="M46" s="6"/>
       <c r="N46" s="6"/>
       <c r="O46" s="6"/>
       <c r="P46" s="6"/>
-      <c r="Q46" s="21"/>
+      <c r="Q46" s="20"/>
       <c r="R46" s="7"/>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A47" s="5"/>
-      <c r="B47" s="18"/>
+      <c r="B47" s="17"/>
       <c r="C47" s="6"/>
       <c r="D47" s="6" t="s">
         <v>51</v>
@@ -1891,21 +2393,21 @@
       <c r="E47" s="6"/>
       <c r="F47" s="6"/>
       <c r="G47" s="6"/>
-      <c r="H47" s="21"/>
+      <c r="H47" s="20"/>
       <c r="I47" s="6"/>
       <c r="J47" s="5"/>
-      <c r="K47" s="18"/>
+      <c r="K47" s="17"/>
       <c r="L47" s="6"/>
       <c r="M47" s="6"/>
       <c r="N47" s="6"/>
       <c r="O47" s="6"/>
       <c r="P47" s="6"/>
-      <c r="Q47" s="21"/>
+      <c r="Q47" s="20"/>
       <c r="R47" s="7"/>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A48" s="5"/>
-      <c r="B48" s="18"/>
+      <c r="B48" s="17"/>
       <c r="C48" s="6"/>
       <c r="D48" s="6" t="s">
         <v>52</v>
@@ -1913,21 +2415,21 @@
       <c r="E48" s="6"/>
       <c r="F48" s="6"/>
       <c r="G48" s="6"/>
-      <c r="H48" s="21"/>
+      <c r="H48" s="20"/>
       <c r="I48" s="6"/>
       <c r="J48" s="5"/>
-      <c r="K48" s="18"/>
+      <c r="K48" s="17"/>
       <c r="L48" s="6"/>
       <c r="M48" s="6"/>
       <c r="N48" s="6"/>
       <c r="O48" s="6"/>
       <c r="P48" s="6"/>
-      <c r="Q48" s="21"/>
+      <c r="Q48" s="20"/>
       <c r="R48" s="7"/>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A49" s="5"/>
-      <c r="B49" s="18"/>
+      <c r="B49" s="17"/>
       <c r="C49" s="6"/>
       <c r="D49" s="6" t="s">
         <v>53</v>
@@ -1935,21 +2437,21 @@
       <c r="E49" s="6"/>
       <c r="F49" s="6"/>
       <c r="G49" s="6"/>
-      <c r="H49" s="21"/>
+      <c r="H49" s="20"/>
       <c r="I49" s="6"/>
       <c r="J49" s="5"/>
-      <c r="K49" s="18"/>
+      <c r="K49" s="17"/>
       <c r="L49" s="6"/>
       <c r="M49" s="6"/>
       <c r="N49" s="6"/>
       <c r="O49" s="6"/>
       <c r="P49" s="6"/>
-      <c r="Q49" s="21"/>
+      <c r="Q49" s="20"/>
       <c r="R49" s="7"/>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A50" s="5"/>
-      <c r="B50" s="18"/>
+      <c r="B50" s="17"/>
       <c r="C50" s="6" t="s">
         <v>54</v>
       </c>
@@ -1957,36 +2459,36 @@
       <c r="E50" s="6"/>
       <c r="F50" s="6"/>
       <c r="G50" s="6"/>
-      <c r="H50" s="21"/>
+      <c r="H50" s="20"/>
       <c r="I50" s="6"/>
       <c r="J50" s="5"/>
-      <c r="K50" s="19"/>
-      <c r="L50" s="14"/>
-      <c r="M50" s="14"/>
-      <c r="N50" s="14"/>
-      <c r="O50" s="14"/>
-      <c r="P50" s="14"/>
-      <c r="Q50" s="22"/>
+      <c r="K50" s="17"/>
+      <c r="L50" s="6"/>
+      <c r="M50" s="6"/>
+      <c r="N50" s="6"/>
+      <c r="O50" s="6"/>
+      <c r="P50" s="6"/>
+      <c r="Q50" s="20"/>
       <c r="R50" s="7"/>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A51" s="5"/>
-      <c r="B51" s="19"/>
-      <c r="C51" s="14"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="14"/>
-      <c r="F51" s="14"/>
-      <c r="G51" s="14"/>
-      <c r="H51" s="22"/>
+      <c r="B51" s="18"/>
+      <c r="C51" s="13"/>
+      <c r="D51" s="13"/>
+      <c r="E51" s="13"/>
+      <c r="F51" s="13"/>
+      <c r="G51" s="13"/>
+      <c r="H51" s="21"/>
       <c r="I51" s="6"/>
       <c r="J51" s="5"/>
-      <c r="K51" s="6"/>
-      <c r="L51" s="6"/>
-      <c r="M51" s="6"/>
-      <c r="N51" s="6"/>
-      <c r="O51" s="6"/>
-      <c r="P51" s="6"/>
-      <c r="Q51" s="6"/>
+      <c r="K51" s="18"/>
+      <c r="L51" s="13"/>
+      <c r="M51" s="13"/>
+      <c r="N51" s="13"/>
+      <c r="O51" s="13"/>
+      <c r="P51" s="13"/>
+      <c r="Q51" s="21"/>
       <c r="R51" s="7"/>
     </row>
     <row r="52" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2072,4 +2574,781 @@
     <brk id="9" max="1048575" man="1"/>
   </colBreaks>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N115"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="6"/>
+      <c r="B2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="6"/>
+      <c r="C3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" s="6"/>
+      <c r="C4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="6"/>
+      <c r="C5" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="6"/>
+      <c r="C6" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" s="6"/>
+      <c r="C7" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C8" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="D9" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="D10" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" s="6"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B11" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="D13" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" s="6"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="D14" s="6"/>
+      <c r="E14" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="D15" s="6"/>
+      <c r="E15" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="D16" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E16" s="6"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="D17" s="6"/>
+      <c r="E17" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="D18" s="6"/>
+      <c r="E18" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="D19" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E19" s="6"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C21" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C22" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="M22" s="6"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="M23" s="6"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A24" s="6">
+        <v>2</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="M24" s="6"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A25" s="6"/>
+      <c r="B25" t="s">
+        <v>90</v>
+      </c>
+      <c r="C25" t="s">
+        <v>89</v>
+      </c>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="M25" s="6"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A26" s="6"/>
+      <c r="C26" t="s">
+        <v>83</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E26" s="6"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="6"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A27" s="6"/>
+      <c r="C27" t="s">
+        <v>84</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E27" s="6"/>
+      <c r="M27" s="6"/>
+      <c r="N27" s="6"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C28" t="s">
+        <v>85</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="E28" s="6"/>
+      <c r="M28" s="6"/>
+      <c r="N28" s="6"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C29" t="s">
+        <v>86</v>
+      </c>
+      <c r="D29" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="E29" s="6"/>
+      <c r="M29" s="6"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C30" t="s">
+        <v>87</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E30" s="6"/>
+      <c r="M30" s="6"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C31" t="s">
+        <v>88</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E31" s="6"/>
+      <c r="M31" s="6"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="M32" s="6"/>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A33" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="M33" s="6"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A34" s="6"/>
+      <c r="B34" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="M34" s="6"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A35" s="6"/>
+      <c r="B35" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="M35" s="6"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="M36" s="6"/>
+      <c r="N36" s="6"/>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A37" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="K37" s="28"/>
+      <c r="L37" s="28"/>
+      <c r="M37" s="6"/>
+      <c r="N37" s="6"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A38" s="6"/>
+      <c r="B38" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="K38" s="28"/>
+      <c r="L38" s="28"/>
+      <c r="M38" s="6"/>
+      <c r="N38" s="6"/>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A39" s="6"/>
+      <c r="B39" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="K39" s="28"/>
+      <c r="L39" s="28"/>
+      <c r="M39" s="6"/>
+      <c r="N39" s="6"/>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A40" s="6"/>
+      <c r="B40" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="K40" s="28"/>
+      <c r="L40" s="28"/>
+      <c r="M40" s="6"/>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C41" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="E41" s="6"/>
+      <c r="K41" s="28"/>
+      <c r="L41" s="28"/>
+      <c r="M41" s="28"/>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C42" s="6"/>
+      <c r="D42" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C43" s="6"/>
+      <c r="D43" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C44" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E44" s="6"/>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B45">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C46" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C47" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C48" s="27" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C49" s="27" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B51" s="6"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" s="6"/>
+      <c r="B52" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53" s="6"/>
+      <c r="C53" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54" s="6"/>
+      <c r="B54" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55" s="6"/>
+      <c r="B55" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56" s="6"/>
+      <c r="B56" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C57" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C58" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B59" t="s">
+        <v>113</v>
+      </c>
+      <c r="G59" s="27"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B60" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C61" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B62" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C63" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B64" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B65" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B66" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B67" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B68" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C69" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C70" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B71" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B72" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C73" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="74" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C74" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="75" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B75" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="76" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B76" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="77" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C77" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="78" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C78" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="79" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B79" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="80" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B80" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B81" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C82" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C83" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C84" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B85" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B86" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B89" t="s">
+        <v>134</v>
+      </c>
+      <c r="H89" s="6"/>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B90" t="s">
+        <v>135</v>
+      </c>
+      <c r="H90" s="6"/>
+      <c r="K90" s="6"/>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B91" t="s">
+        <v>136</v>
+      </c>
+      <c r="H91" s="6"/>
+      <c r="K91" s="6"/>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C92" t="s">
+        <v>137</v>
+      </c>
+      <c r="H92" s="6"/>
+      <c r="K92" s="6"/>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C93" t="s">
+        <v>138</v>
+      </c>
+      <c r="H93" s="6"/>
+      <c r="K93" s="6"/>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B94" t="s">
+        <v>139</v>
+      </c>
+      <c r="H94" s="6"/>
+      <c r="K94" s="6"/>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C95" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C96" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="97" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B97" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="98" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C98" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="99" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C99" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="100" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B100" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="101" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C101" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="102" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C102" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="103" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C103" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="104" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B104" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="105" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D105" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="106" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B106" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="107" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C107" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="108" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D108" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="109" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C109" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="110" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D110" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="111" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C111" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="112" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C112" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="113" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C113" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="114" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C114" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="115" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C115" t="s">
+        <v>163</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>